--- a/rules.xlsx
+++ b/rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB8DF2-E93C-4AFD-BAE3-63D5D608537B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3E0E45-7B3E-48B7-A85A-2A056738AAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="202">
   <si>
     <t>Item_Name</t>
   </si>
@@ -78,9 +67,6 @@
   </si>
   <si>
     <t>0524A 一、鍵槽寬28mm -0.022,-0.074 二、鍵槽寬32mm -0.026,-0.088 | 0524A 一、鍵槽寬36mm -0.026,-0.088 二、鍵槽寬32mm -0.026,-0.088 | 0524A 鍵槽寬 28mm -0.022,-0.074 | 0524A 鍵槽寬 32mm -0.026,-0.088 | 0524A 鍵槽寬12mm +0.021,-0.021 | 0524A 鍵槽寬15.875mm ±0.1 | 0524A 鍵槽寬18mm -0.022, -0.074 | 0524A 鍵槽寬22mm -0.022, -0.074 | 0524A 鍵槽寬28.57mm ±0.3 | 0524A 鍵槽寬28.6mm ±0.025 | 0524A 鍵槽寬28mm +0,-0.052 | 0524A 鍵槽寬28mm -0.022,-0.074 | 0524A 鍵槽寬32mm +0,-0.062 | 0524A 鍵槽寬32mm -0.026,-0.088 | 0524A 鍵槽寬36mm +0,-0.062 | 0524A 鍵槽寬36mm -0.026,-0.088 | 0524A 鍵槽寬38.1mm +0, +0.038 | 0524A 鍵槽寬38.1mm +0,,+0.038 | 0524A 鍵槽寬38.1mm +0.04 | 0524A 鍵槽寬38mm +0.01,+0.07 | 0524A 鍵槽寬40mm +0,-0.062 | 0524A 鍵槽寬50mm -0.022,-0.074</t>
-  </si>
-  <si>
-    <t>Keyway 數量 **&lt;=** 該編號的軸位再生數量。</t>
   </si>
   <si>
     <t>(通用)WX ROLL熱處理</t>
@@ -422,9 +408,6 @@
   <si>
     <t>1.規範必須是一個數值區間，實測值包含於規範區間合格。
 2.若有多項規格，符合其一即可。</t>
-  </si>
-  <si>
-    <t>不用核對規格，只要項目尺寸為KG單位即合格。</t>
   </si>
   <si>
     <t>(通用)全廠輥輪動平衡 輥輪動平衡</t>
@@ -658,12 +641,35 @@
   <si>
     <t>0634A 測試平台測試輥輪滾動真圓度±0.1mm</t>
   </si>
+  <si>
+    <t>W3 #5 改造 300 Roller 軸頸未再生車修一端</t>
+  </si>
+  <si>
+    <t>0656A 車修直徑147mm且無裂痕</t>
+  </si>
+  <si>
+    <t>Journal_PreRepair</t>
+  </si>
+  <si>
+    <t>W3 #5 改造 300 Roller 軸頸再生車修一端</t>
+  </si>
+  <si>
+    <t>0657A 車修至直徑150mm -0.014,-0.05</t>
+  </si>
+  <si>
+    <t>Keyway 數量&lt;= 該編號的軸位再生數量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>統計表KG數需等於列表KG數，否則FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -685,12 +691,6 @@
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -765,8 +765,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -780,9 +780,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1063,18 +1061,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="69.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.36328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="57.36328125" customWidth="1"/>
     <col min="3" max="3" width="14.90625" customWidth="1"/>
     <col min="4" max="6" width="20.7265625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
@@ -1087,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
         <v>179</v>
-      </c>
-      <c r="E1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" t="s">
-        <v>181</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -1108,12 +1106,12 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
@@ -1135,18 +1133,18 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
         <v>112</v>
       </c>
-      <c r="H5" t="s">
-        <v>113</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1154,10 +1152,10 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" t="s">
         <v>114</v>
-      </c>
-      <c r="I6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1165,10 +1163,10 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" t="s">
         <v>116</v>
-      </c>
-      <c r="I7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -1176,32 +1174,32 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" t="s">
         <v>143</v>
       </c>
-      <c r="H9" t="s">
-        <v>145</v>
-      </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -1209,423 +1207,422 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" t="s">
         <v>119</v>
-      </c>
-      <c r="I11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" t="s">
         <v>121</v>
-      </c>
-      <c r="I12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="H13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" t="s">
         <v>127</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
         <v>42</v>
       </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="4" t="s">
+      <c r="C34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
+      <c r="C35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
+      <c r="C38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1633,599 +1630,621 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="C43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>61</v>
+      <c r="A47" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="I50" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
         <v>70</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" t="s">
         <v>71</v>
       </c>
-      <c r="C53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="5" t="s">
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="6" t="s">
+      <c r="E59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" s="6" t="s">
+      <c r="E61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
         <v>78</v>
       </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" s="6" t="s">
+      <c r="D63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="6" t="s">
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="6" t="s">
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
         <v>82</v>
       </c>
-      <c r="C62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" s="6" t="s">
+      <c r="E66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" s="6" t="s">
+      <c r="E67" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B64" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="6" t="s">
+      <c r="E68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="B69" t="s">
         <v>87</v>
       </c>
-      <c r="C66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" t="s">
-        <v>92</v>
-      </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" s="7" t="s">
-        <v>95</v>
+      <c r="A71" t="s">
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
-      </c>
-      <c r="I71" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>99</v>
+      <c r="A73" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="I73" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" t="s">
         <v>107</v>
       </c>
-      <c r="B77" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" t="s">
-        <v>20</v>
+      <c r="C79" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3E0E45-7B3E-48B7-A85A-2A056738AAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE0C68D-96D0-4B70-AE4F-35A199C39C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="202">
   <si>
     <t>Item_Name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Agent_Role</t>
-  </si>
-  <si>
     <t>Trigger_Keywords</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
   </si>
   <si>
     <t>中龍熱軋廠全廠輥輪軸頸 KEY WAY銑槽</t>
-  </si>
-  <si>
-    <t>0957A 鍵槽寬18mm -0.018,-0.061 | 0957A 鍵槽寬22mm -0.022, -0.074 | 0957A 鍵槽寬22mm -0.022,-0.074 | 0957A 鍵槽寬28mm -0.022,-0.074 | 0957A 鍵槽寬32mm +0,-0.062</t>
   </si>
   <si>
     <t>Keyway</t>
@@ -530,9 +524,6 @@
     <t>W3 #5 改造 250 300 驅動輥輪 本體未再生車修</t>
   </si>
   <si>
-    <t>0644A 車修直徑294mm且無裂痕 | 0644A 車修至直徑244mm且無裂痕</t>
-  </si>
-  <si>
     <t>W3 #5 改造 250 300 驅動輥輪 本體再生車修</t>
   </si>
   <si>
@@ -540,9 +531,6 @@
   </si>
   <si>
     <t>W3 #5 改造 250及300驅動輥輪軸心 本體未再生車修</t>
-  </si>
-  <si>
-    <t>0648A 車修至直徑一、131mm +0,-0.025 二、129mm +0,-0.025 | 0648A 車修至直徑一、161mm +0,-0.025 二、159mm +0,-0.025</t>
   </si>
   <si>
     <t>W3 #5 改造 250 驅動輥輪 本體銲補</t>
@@ -639,29 +627,51 @@
     <t>W3 #5 改造 300 驅動輥輪 舊品拆裝</t>
   </si>
   <si>
+    <t>Keyway 數量&lt;= 該編號的軸位再生數量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>統計表KG數需等於列表KG數，否則FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3 #5 機  Ø300 Roller 軸頸未再生車修一端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3 #5 機  Ø300 Roller 軸頸再生車修一端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_PreRepair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal_PreRepair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0634A 測試平台測試輥輪滾動真圓度±0.1mm</t>
-  </si>
-  <si>
-    <t>W3 #5 改造 300 Roller 軸頸未再生車修一端</t>
-  </si>
-  <si>
-    <t>0656A 車修直徑147mm且無裂痕</t>
-  </si>
-  <si>
-    <t>Journal_PreRepair</t>
-  </si>
-  <si>
-    <t>W3 #5 改造 300 Roller 軸頸再生車修一端</t>
-  </si>
-  <si>
-    <t>0657A 車修至直徑150mm -0.014,-0.05</t>
-  </si>
-  <si>
-    <t>Keyway 數量&lt;= 該編號的軸位再生數量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>統計表KG數需等於列表KG數，否則FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0656A 車修至直徑147mm且無裂痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0644A 車修直徑294mm且無裂痕 | 0644A 車修至直徑244mm且無裂痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0648A 車修至直徑一、131mm +0,-0.025 二、129mm +0,-0.025 | 0648A 車修至直徑一、161mm +0,-0.025 二、159mm +0,-0.025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0957A 鍵槽寬18mm -0.018,-0.061 | 0957A 鍵槽寬22mm -0.022, -0.074 | 0957A 鍵槽寬22mm -0.022,-0.074 | 0957A 鍵槽寬28mm -0.022,-0.074 | 0957A 鍵槽寬32mm +0,-0.062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657A 車修至直徑 150mm -0.014, -0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,7 +790,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1061,12 +1070,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1075,1176 +1084,1173 @@
     <col min="2" max="2" width="57.36328125" customWidth="1"/>
     <col min="3" max="3" width="14.90625" customWidth="1"/>
     <col min="4" max="6" width="20.7265625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>109</v>
       </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>200</v>
-      </c>
-      <c r="H13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>50</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
+      <c r="B45" t="s">
         <v>52</v>
       </c>
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
         <v>54</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
+      <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
         <v>62</v>
       </c>
-      <c r="B50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>137</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>66</v>
       </c>
-      <c r="C52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>67</v>
       </c>
-      <c r="C53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>68</v>
       </c>
-      <c r="C54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
         <v>69</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C56" t="s">
         <v>70</v>
       </c>
-      <c r="C55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" t="s">
         <v>71</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" t="s">
-        <v>74</v>
-      </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
         <v>76</v>
       </c>
-      <c r="C60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="5" t="s">
+      <c r="D62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B63" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="5" t="s">
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>79</v>
       </c>
-      <c r="C62" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" s="5" t="s">
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" t="s">
         <v>80</v>
       </c>
-      <c r="C63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" s="5" t="s">
+      <c r="D65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B66" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="5" t="s">
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>83</v>
       </c>
-      <c r="C65" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="5" t="s">
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>84</v>
       </c>
-      <c r="C66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="5" t="s">
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>85</v>
       </c>
-      <c r="C67" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
         <v>86</v>
       </c>
-      <c r="C68" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>87</v>
       </c>
-      <c r="C69" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
         <v>88</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>89</v>
       </c>
-      <c r="C70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
         <v>90</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>91</v>
       </c>
-      <c r="C71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>93</v>
       </c>
-      <c r="C72" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" s="6" t="s">
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>94</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>95</v>
       </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-      <c r="I73" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
         <v>96</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>97</v>
       </c>
-      <c r="C74" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
         <v>98</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>99</v>
       </c>
-      <c r="C75" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>100</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>101</v>
       </c>
-      <c r="C76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>102</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>103</v>
       </c>
-      <c r="C77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
         <v>104</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>105</v>
       </c>
-      <c r="C78" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" t="s">
-        <v>107</v>
-      </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE0C68D-96D0-4B70-AE4F-35A199C39C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B2542-94DD-43BB-AA52-88C92213CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="201">
   <si>
     <t>Item_Name</t>
   </si>
@@ -640,10 +640,6 @@
   </si>
   <si>
     <t>W3 #5 機  Ø300 Roller 軸頸再生車修一端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body_PreRepair</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1072,10 +1068,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1558,7 +1554,7 @@
         <v>189</v>
       </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>70</v>
@@ -1575,10 +1571,10 @@
         <v>192</v>
       </c>
       <c r="B37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1588,7 +1584,7 @@
         <v>193</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -1601,7 +1597,7 @@
         <v>160</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>80</v>
@@ -1641,10 +1637,10 @@
         <v>163</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>178</v>
@@ -1656,9 +1652,7 @@
         <v>176</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
@@ -1792,7 +1786,7 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B2542-94DD-43BB-AA52-88C92213CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37434D56-7E44-40F4-896E-B4718E9855BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="202">
   <si>
     <t>Item_Name</t>
   </si>
@@ -530,9 +530,6 @@
     <t>0645A 直徑250mm±0.1 | 0645A 直徑300mm±0.1</t>
   </si>
   <si>
-    <t>W3 #5 改造 250及300驅動輥輪軸心 本體未再生車修</t>
-  </si>
-  <si>
     <t>W3 #5 改造 250 驅動輥輪 本體銲補</t>
   </si>
   <si>
@@ -668,6 +665,14 @@
   </si>
   <si>
     <t>0657A 車修至直徑 150mm -0.014, -0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3 #5 改造 250及300驅動輥輪軸心 本體未再生車修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個項目不是軸頸未再生車修，只是名子很像。這是一個獨立的施工項目，不屬於本體或軸頸的流程。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,10 +1073,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1095,19 +1100,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
         <v>173</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>174</v>
-      </c>
-      <c r="F1" t="s">
-        <v>175</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1145,7 +1150,7 @@
         <v>110</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1178,7 +1183,7 @@
         <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1216,7 +1221,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
         <v>118</v>
@@ -1236,7 +1241,7 @@
         <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G13" t="s">
         <v>121</v>
@@ -1256,10 +1261,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
@@ -1431,16 +1436,16 @@
         <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" t="s">
         <v>180</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -1500,91 +1505,91 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" t="s">
         <v>183</v>
-      </c>
-      <c r="B33" t="s">
-        <v>184</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" t="s">
         <v>185</v>
-      </c>
-      <c r="B34" t="s">
-        <v>186</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" t="s">
         <v>187</v>
-      </c>
-      <c r="B35" t="s">
-        <v>188</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -1597,19 +1602,19 @@
         <v>160</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -1623,77 +1628,79 @@
         <v>31</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1709,7 +1716,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H44" s="1"/>
     </row>
@@ -1724,7 +1731,7 @@
         <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1751,7 +1758,7 @@
         <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1786,7 +1793,7 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
@@ -1864,13 +1871,13 @@
         <v>70</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -1884,13 +1891,13 @@
         <v>70</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -1904,11 +1911,11 @@
         <v>18</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -1922,13 +1929,13 @@
         <v>50</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -1942,13 +1949,13 @@
         <v>50</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -1962,13 +1969,13 @@
         <v>76</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -1982,13 +1989,13 @@
         <v>76</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -2002,13 +2009,13 @@
         <v>76</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -2022,13 +2029,13 @@
         <v>80</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -2042,13 +2049,13 @@
         <v>80</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -2062,13 +2069,13 @@
         <v>80</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -2082,13 +2089,13 @@
         <v>31</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -2102,13 +2109,13 @@
         <v>31</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -2122,13 +2129,13 @@
         <v>31</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -2178,7 +2185,7 @@
         <v>70</v>
       </c>
       <c r="H73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37434D56-7E44-40F4-896E-B4718E9855BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B56F4E-6A10-46E7-BD9E-BBD89BD760FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="203">
   <si>
     <t>Item_Name</t>
   </si>
@@ -628,10 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>統計表KG數需等於列表KG數，否則FAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W3 #5 機  Ø300 Roller 軸頸未再生車修一端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -673,6 +669,33 @@
   </si>
   <si>
     <t>這個項目不是軸頸未再生車修，只是名子很像。這是一個獨立的施工項目，不屬於本體或軸頸的流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>計入運費加總</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1SET=1PC</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無視規範溫度，編號欄位的KG值等於統計表頭實交數量KG值即PASS。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +703,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -742,6 +765,12 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1071,15 +1100,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="69.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.36328125" customWidth="1"/>
@@ -1089,7 +1118,7 @@
     <col min="8" max="8" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1144,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -1123,7 +1152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +1160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1142,7 +1171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="51">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -1153,7 +1182,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1193,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1175,7 +1204,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1186,7 +1215,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -1197,7 +1226,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -1208,7 +1237,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1219,7 +1248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -1230,7 +1259,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -1250,28 +1279,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -1288,7 +1318,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -1299,7 +1329,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1352,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -1333,7 +1363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="40.5" customHeight="1">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1345,7 +1375,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1357,7 +1387,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1369,7 +1399,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1381,7 +1411,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1392,7 +1422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1403,7 +1433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1414,7 +1444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1425,7 +1455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="32.5">
       <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
@@ -1442,13 +1472,13 @@
         <v>175</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="H27" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1459,7 +1489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1470,7 +1500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1481,7 +1511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1492,7 +1522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1503,7 +1533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
         <v>182</v>
       </c>
@@ -1520,7 +1550,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
         <v>184</v>
       </c>
@@ -1537,7 +1567,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
         <v>186</v>
       </c>
@@ -1554,12 +1584,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>70</v>
@@ -1571,25 +1601,25 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -1597,12 +1627,12 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>80</v>
@@ -1617,7 +1647,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
         <v>161</v>
       </c>
@@ -1637,12 +1667,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
@@ -1658,10 +1688,10 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
         <v>163</v>
       </c>
@@ -1683,7 +1713,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
         <v>165</v>
       </c>
@@ -1705,7 +1735,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1720,7 +1750,7 @@
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
@@ -1736,7 +1766,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1747,7 +1777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -1763,7 +1793,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -1777,7 +1807,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1788,12 +1818,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
@@ -1802,7 +1832,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>134</v>
       </c>
@@ -1816,7 +1846,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>135</v>
       </c>
@@ -1827,7 +1857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -1838,7 +1868,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -1849,7 +1879,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -1860,7 +1890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" ht="17.149999999999999" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>147</v>
       </c>
@@ -1880,7 +1910,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="17.149999999999999" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>148</v>
       </c>
@@ -1900,7 +1930,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8">
       <c r="A58" s="5" t="s">
         <v>146</v>
       </c>
@@ -1918,7 +1948,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8">
       <c r="A59" s="5" t="s">
         <v>149</v>
       </c>
@@ -1938,7 +1968,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8">
       <c r="A60" s="5" t="s">
         <v>145</v>
       </c>
@@ -1958,7 +1988,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8">
       <c r="A61" s="5" t="s">
         <v>150</v>
       </c>
@@ -1978,7 +2008,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8">
       <c r="A62" s="5" t="s">
         <v>151</v>
       </c>
@@ -1998,7 +2028,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8">
       <c r="A63" s="5" t="s">
         <v>152</v>
       </c>
@@ -2018,7 +2048,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8">
       <c r="A64" s="5" t="s">
         <v>153</v>
       </c>
@@ -2038,7 +2068,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8">
       <c r="A65" s="5" t="s">
         <v>154</v>
       </c>
@@ -2058,7 +2088,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8">
       <c r="A66" s="5" t="s">
         <v>155</v>
       </c>
@@ -2078,7 +2108,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8">
       <c r="A67" s="5" t="s">
         <v>156</v>
       </c>
@@ -2098,7 +2128,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8">
       <c r="A68" s="5" t="s">
         <v>157</v>
       </c>
@@ -2118,7 +2148,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8">
       <c r="A69" s="5" t="s">
         <v>158</v>
       </c>
@@ -2138,7 +2168,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -2149,7 +2179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -2160,7 +2190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -2174,7 +2204,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8">
       <c r="A73" s="6" t="s">
         <v>92</v>
       </c>
@@ -2188,7 +2218,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -2199,7 +2229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -2210,7 +2240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -2221,7 +2251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -2232,7 +2262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -2243,7 +2273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>104</v>
       </c>
